--- a/literature/tools.xlsx
+++ b/literature/tools.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicole/Documents/SWE/Studies/EMSE_2025/literature/venues/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicole/Documents/SWE/Repositories/emse2025.github.io/literature/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C201141B-9DC0-1F42-AA99-6A945A1FC73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7091DA0F-9483-BF48-A594-DC94036DE5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10580" yWindow="13540" windowWidth="30240" windowHeight="13660" xr2:uid="{D5691B56-721D-914A-A92F-66EB6AEAF955}"/>
+    <workbookView xWindow="4020" yWindow="2780" windowWidth="30240" windowHeight="13660" xr2:uid="{D5691B56-721D-914A-A92F-66EB6AEAF955}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -305,9 +305,6 @@
     <t>Cartographer</t>
   </si>
   <si>
-    <t>https://github.com/gorla/appmining</t>
-  </si>
-  <si>
     <t>https://ieeexplore.ieee.org/document/8595197</t>
   </si>
   <si>
@@ -539,16 +536,7 @@
     <t>PaStA</t>
   </si>
   <si>
-    <t>https://github.com/lfd/PaStA</t>
-  </si>
-  <si>
     <t>CASCADE</t>
-  </si>
-  <si>
-    <t>10.1109/ICSE.2015.44</t>
-  </si>
-  <si>
-    <t>10.1109/ICSE.2019.00088</t>
   </si>
   <si>
     <t>ViolationTracker</t>
@@ -630,18 +618,12 @@
     <t xml:space="preserve">https://github.com/gotec/git2net </t>
   </si>
   <si>
-    <t xml:space="preserve">https://peerj.com/articles/cs-601/ </t>
-  </si>
-  <si>
     <t>https://github.com/uni-bremen-agst/libvcs4j</t>
   </si>
   <si>
     <t xml:space="preserve">https://github.com/smartshark </t>
   </si>
   <si>
-    <t xml:space="preserve">https://github.com/clowee/PANDORA </t>
-  </si>
-  <si>
     <t>https://github.com/crossminer/scava/tree/crossflow/crossflow</t>
   </si>
   <si>
@@ -651,9 +633,6 @@
     <t>10.1109/MSR.2017.56</t>
   </si>
   <si>
-    <t>https://github.com/candoia</t>
-  </si>
-  <si>
     <t>10.1007/s10664-019-09788-5</t>
   </si>
   <si>
@@ -663,9 +642,6 @@
     <t>MSR question aswering from software repositories</t>
   </si>
   <si>
-    <t xml:space="preserve">https://github.com/ahmad-abdellatif/MSRBot </t>
-  </si>
-  <si>
     <t>10.1109/SANER60148.2024.00082</t>
   </si>
   <si>
@@ -690,18 +666,12 @@
     <t>code performance checking for Julia packages</t>
   </si>
   <si>
-    <t>https://github.com/findbugsproject/findbugs</t>
-  </si>
-  <si>
     <t>continuous static code analysis</t>
   </si>
   <si>
     <t>https://github.com/SonarSource/sonarqube</t>
   </si>
   <si>
-    <t>https://github.com/aserg-ufmg/RefDiff</t>
-  </si>
-  <si>
     <t>https://github.com/tsantalis/RefactoringMiner</t>
   </si>
   <si>
@@ -819,9 +789,6 @@
     <t>10.1007/s10664-021-09963-7</t>
   </si>
   <si>
-    <t>https://github.com/crossminer/crossminer</t>
-  </si>
-  <si>
     <t>mining software repositories and related sources</t>
   </si>
   <si>
@@ -840,9 +807,6 @@
     <t>Mining software repositories, general purpose</t>
   </si>
   <si>
-    <t>https://doi.org/10.5281/zenodo.4259911</t>
-  </si>
-  <si>
     <t>collaborative feature modeling editor</t>
   </si>
   <si>
@@ -855,9 +819,6 @@
     <t>static code analysis, coding style check</t>
   </si>
   <si>
-    <t>https://github.com/ibm/aimmx</t>
-  </si>
-  <si>
     <t>10.1145/3379597.338744, 10.1007/s10664-022-10206-6</t>
   </si>
   <si>
@@ -870,9 +831,6 @@
     <t>10.1109/ICSAW.2017.16</t>
   </si>
   <si>
-    <t>https://github.com/vijaybw/graphevodef</t>
-  </si>
-  <si>
     <t>https://vijaybw.github.io/graphevodef/</t>
   </si>
   <si>
@@ -906,18 +864,12 @@
     <t>10.1007/s10664-022-10168-9</t>
   </si>
   <si>
-    <t>https://github.com/OpenSELab/BTLink</t>
-  </si>
-  <si>
     <t>10.1007/s10664-023-10342-7</t>
   </si>
   <si>
     <t>issue and commit link recovery with BERT</t>
   </si>
   <si>
-    <t>https://github.com/flake-it/cannier-experiment</t>
-  </si>
-  <si>
     <t>10.1007/s10664-023-10307-w</t>
   </si>
   <si>
@@ -960,9 +912,6 @@
     <t>knowledge graphing git repositories</t>
   </si>
   <si>
-    <t>https://github.com/xuanyi531/GitGraph</t>
-  </si>
-  <si>
     <t>10.1109/SANER.2019.8668034</t>
   </si>
   <si>
@@ -972,9 +921,6 @@
     <t>10.1109/SANER60148.2024.00107</t>
   </si>
   <si>
-    <t>https://github.com/SOM-Research/HFCommunity</t>
-  </si>
-  <si>
     <t>https://som-research.github.io/HFCommunity/</t>
   </si>
   <si>
@@ -990,9 +936,6 @@
     <t>10.1109/SANER50967.2021.00064</t>
   </si>
   <si>
-    <t>https://github.com/SECSY-Group/spojitr</t>
-  </si>
-  <si>
     <t>linking artefacts from issue tracking and version control systems</t>
   </si>
   <si>
@@ -1017,9 +960,6 @@
     <t>visualising Go software projects as cities</t>
   </si>
   <si>
-    <t>https://github.com/rodrigo-brito/gocity</t>
-  </si>
-  <si>
     <t>10.1109/SANER.2019.8668008</t>
   </si>
   <si>
@@ -1044,18 +984,9 @@
     <t>mining evolutionary coupling for change impact analysis</t>
   </si>
   <si>
-    <t>https://bitbucket.org/evolveit/tarma/src/master/</t>
-  </si>
-  <si>
     <t>10.1109/SANER.2016.101</t>
   </si>
   <si>
-    <t>https://zenodo.org/records/10500219</t>
-  </si>
-  <si>
-    <t>https://github.com/e32wong/clocom</t>
-  </si>
-  <si>
     <t>code comment generation by code clone detection</t>
   </si>
   <si>
@@ -1065,15 +996,9 @@
     <t>10.1109/SANER48275.2020.9054811</t>
   </si>
   <si>
-    <t>https://github.com/topleet/topleet</t>
-  </si>
-  <si>
     <t>scalable software repository mining with incremental Map-Reduce</t>
   </si>
   <si>
-    <t>https://github.com/Kawser-nerd/XLibRec</t>
-  </si>
-  <si>
     <t>recommending similar libraries</t>
   </si>
   <si>
@@ -1086,9 +1011,6 @@
     <t>vulnerable statement localisation with transformer</t>
   </si>
   <si>
-    <t>https://github.com/ARiSE-Lab/VELVET</t>
-  </si>
-  <si>
     <t>10.1109/MSR.2019.00031</t>
   </si>
   <si>
@@ -1110,9 +1032,6 @@
     <t>https://github.com/pavt/egad, https://doi.org/10.5281/zenodo.7714219</t>
   </si>
   <si>
-    <t>https://bitbucket.org/wsucailab/iterative-taint-analysis/src/v1.0-Evotaint/</t>
-  </si>
-  <si>
     <t>10.1145/3196398.3196433, 10.1145/3743132</t>
   </si>
   <si>
@@ -1131,36 +1050,21 @@
     <t>discovering repetitive code changes in ML</t>
   </si>
   <si>
-    <t>https://github.com/maldil/R-CPATMiner</t>
-  </si>
-  <si>
     <t>detecting compatibility issues in Android apps</t>
   </si>
   <si>
-    <t>https://github.com/intersimone999/acryl</t>
-  </si>
-  <si>
     <t>10.1109/MSR.2019.00055</t>
   </si>
   <si>
-    <t>https://github.com/FudanSELab/violationTracker</t>
-  </si>
-  <si>
     <t>static analysis violation detection and tracking</t>
   </si>
   <si>
-    <t>https://github.com/reprogrammer/cascade</t>
-  </si>
-  <si>
     <t>Java 8 type qualifier inference</t>
   </si>
   <si>
     <t>mapping commits and mailing list messages</t>
   </si>
   <si>
-    <t>https://github.com/JetBrains-Research/Matroskin</t>
-  </si>
-  <si>
     <t>static analysis for Jupyter notebooks</t>
   </si>
   <si>
@@ -1173,15 +1077,9 @@
     <t>change detection in GitHub action workflows</t>
   </si>
   <si>
-    <t>https://github.com/HiFromAjay/ManifestInspector</t>
-  </si>
-  <si>
     <t>static analysis for detecting developer mistakes in Android manifests</t>
   </si>
   <si>
-    <t>https://github.com/jiangyy/c3</t>
-  </si>
-  <si>
     <t>crash consistency (file system data safety) validation</t>
   </si>
   <si>
@@ -1197,27 +1095,15 @@
     <t>mocked and non-mocked dependency extraction in test units</t>
   </si>
   <si>
-    <t>https://github.com/ishepard/MockExtractor</t>
-  </si>
-  <si>
     <t>10.1109/MSR.2017.61</t>
   </si>
   <si>
-    <t>https://github.com/ualberta-smr/LibCompPlugin</t>
-  </si>
-  <si>
     <t>IntelliJ plugin for library comparison</t>
   </si>
   <si>
-    <t>https://github.com/FTSRG/mondo-collab-framework</t>
-  </si>
-  <si>
     <t>Android app analysis (change evolution, dependencies)</t>
   </si>
   <si>
-    <t>https://github.com/stg-tud/MUDetect</t>
-  </si>
-  <si>
     <t>https://doi.org/10.6084/m9.figshare.21929856</t>
   </si>
   <si>
@@ -1227,96 +1113,51 @@
     <t>security smell detection for Ansible code</t>
   </si>
   <si>
-    <t>https://doi.org/10.5281/zenodo.808272, https://github.com/DaSEA-project/DASEA/blob/main/README.adoc</t>
-  </si>
-  <si>
     <t>software ecosystem dependency network analysis</t>
   </si>
   <si>
-    <t>https://github.com/diverse-project/maven-miner</t>
-  </si>
-  <si>
     <t>mining and visualising Maven Central dependencies</t>
   </si>
   <si>
     <t>10.1145/3236024.3236047</t>
   </si>
   <si>
-    <t>https://hub.docker.com/u/codecontinuum</t>
-  </si>
-  <si>
     <t>Docker container inspection for package extraction</t>
   </si>
   <si>
     <t>https://github.com/AhmedZerouali/ConPan</t>
   </si>
   <si>
-    <t>https://github.com/Nuri22/csDetector</t>
-  </si>
-  <si>
     <t>Collaboration and coordination</t>
   </si>
   <si>
     <t>software reliability growth analysis</t>
   </si>
   <si>
-    <t>https://github.com/stanozm/STRAIT</t>
-  </si>
-  <si>
-    <t>https://github.com/ssc-oscar/BIMAN_bot_detection</t>
-  </si>
-  <si>
     <t>https://mitschi.github.io/preprints/differ-maven-differ-0.0.6.jar</t>
   </si>
   <si>
     <t>differencing between Maven configuration files</t>
   </si>
   <si>
-    <t>https://github.com/project-draco</t>
-  </si>
-  <si>
     <t>pre-trained model for code change representation</t>
   </si>
   <si>
-    <t>https://github.com/Ringbo/CCT5</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5281/zenodo.3861003</t>
-  </si>
-  <si>
-    <t>https://github.com/Symbolk/SmartCommitEvaluation-Viz</t>
-  </si>
-  <si>
     <t>characterising deprecated Android APIs</t>
   </si>
   <si>
-    <t>https://github.com/lilicoding/CDA</t>
-  </si>
-  <si>
     <t>identifying code changes responsible for performance regressions</t>
   </si>
   <si>
-    <t>https://www.cs.wm.edu/semeru/data/MSR16-PerfImpact/</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.5281/zenodo.5082683</t>
-  </si>
-  <si>
     <t>embedding code changes (e.g. for commit messages)</t>
   </si>
   <si>
-    <t>https://github.com/liuchaoss/codematcher-demo</t>
-  </si>
-  <si>
     <t>code search</t>
   </si>
   <si>
     <t>Refactoring and code change</t>
   </si>
   <si>
-    <t>https://github.com/sap/project-kb</t>
-  </si>
-  <si>
     <t>finding fixing commit for a vulnerability inducing commit</t>
   </si>
   <si>
@@ -1326,43 +1167,202 @@
     <t>automatically patching TODO-missed methods</t>
   </si>
   <si>
-    <t>https://github.com/beyondacm/Que2Code</t>
-  </si>
-  <si>
     <t>code snippet recommendation from Stack Overflow</t>
   </si>
   <si>
-    <t>https://github.com/se-sic/VaRA-Tool-Suite</t>
-  </si>
-  <si>
-    <t>https://github.com/Mondego/SourcererJBF</t>
-  </si>
-  <si>
     <t>bug-fixing dataset generation</t>
   </si>
   <si>
-    <t>https://github.com/SET-IITGN/MineCPP</t>
-  </si>
-  <si>
     <t>Heddle (Flexeme)</t>
   </si>
   <si>
-    <t>https://zenodo.org/records/3894559</t>
-  </si>
-  <si>
     <t>10.1145/3368089.3409693</t>
   </si>
   <si>
     <t>variability-aware differencing</t>
   </si>
   <si>
-    <t>https://github.com/VariantSync/DiffDetective</t>
-  </si>
-  <si>
-    <t>https://github.com/Commit-Untangling/commit-untangling</t>
-  </si>
-  <si>
     <t>https://github.com/TestSmells/TestSmellDetector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/beyondacm/Que2Code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/liuchaoss/codematcher-demo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/reprogrammer/cascade </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/e32wong/clocom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/rodrigo-brito/gocity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1109/ICSE.2015.44 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/VariantSync/DiffDetective </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5281/zenodo.5082683 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Ringbo/CCT5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/project-draco </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bitbucket.org/evolveit/tarma/src/master/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/maldil/R-CPATMiner </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/aserg-ufmg/RefDiff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Commit-Untangling/commit-untangling </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Symbolk/SmartCommitEvaluation-Viz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zenodo.org/records/3894559 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Mondego/SourcererJBF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/lilicoding/CDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5281/zenodo.3861003 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/ssc-oscar/BIMAN_bot_detection </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/stanozm/STRAIT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://hub.docker.com/u/codecontinuum </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/diverse-project/maven-miner </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5281/zenodo.808272, https://github.com/DaSEA-project/DASEA/blob/main/README.adoc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/stg-tud/MUDetect </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/gorla/appmining </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/FTSRG/mondo-collab-framework </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/ualberta-smr/LibCompPlugin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/ishepard/MockExtractor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/intersimone999/acryl </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Kawser-nerd/XLibRec </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zenodo.org/records/10500219 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/ibm/aimmx </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.5281/zenodo.4259911 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/SET-IITGN/MineCPP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/se-sic/VaRA-Tool-Suite </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/sap/project-kb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.cs.wm.edu/semeru/data/MSR16-PerfImpact/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/jiangyy/c3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/HiFromAjay/ManifestInspector </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/JetBrains-Research/Matroskin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/FudanSELab/violationTracker </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bitbucket.org/wsucailab/iterative-taint-analysis/src/v1.0-Evotaint/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/ARiSE-Lab/VELVET </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/flake-it/cannier-experiment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/vijaybw/graphevodef </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/findbugsproject/findbugs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/Nuri22/csDetector </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/lfd/PaStA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/topleet/topleet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1109/ICSE.2019.00088 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/SECSY-Group/spojitr </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/SOM-Research/HFCommunity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/xuanyi531/GitGraph </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/OpenSELab/BTLink </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/crossminer/crossminer </t>
+  </si>
+  <si>
+    <t>https://github.com/ahmad-abdellatif/MSRBot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/candoia </t>
+  </si>
+  <si>
+    <t>https://github.com/clowee/PANDORA</t>
+  </si>
+  <si>
+    <t>https://peerj.com/articles/cs-601/</t>
   </si>
 </sst>
 </file>
@@ -1387,13 +1387,6 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1425,6 +1418,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="12"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
@@ -1472,7 +1471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1481,32 +1480,40 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1851,7 +1858,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1864,43 +1871,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="A1" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>128</v>
+      <c r="E1" s="7" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="11"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>255</v>
+        <v>251</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1908,13 +1915,13 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1922,13 +1929,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>261</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="D5" t="s">
-        <v>178</v>
+        <v>250</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1936,13 +1943,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>262</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>197</v>
+        <v>251</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1950,13 +1957,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>263</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>192</v>
+        <v>252</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -1964,13 +1971,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>189</v>
+        <v>253</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1978,13 +1985,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>262</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="D9" t="s">
-        <v>182</v>
+        <v>251</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -1994,11 +2001,11 @@
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>253</v>
+      <c r="D10" s="20" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2008,11 +2015,11 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>181</v>
+      <c r="C11" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2020,27 +2027,27 @@
         <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>261</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>193</v>
+        <v>250</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>265</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>126</v>
+        <v>254</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2050,25 +2057,25 @@
       <c r="B14" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="20" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" s="21" t="s">
         <v>164</v>
-      </c>
-      <c r="B15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="D15" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -2076,12 +2083,12 @@
         <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>191</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="D16" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2092,10 +2099,10 @@
       <c r="B17" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="C17" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2106,25 +2113,25 @@
       <c r="B18" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="D18" t="s">
-        <v>203</v>
+      <c r="C18" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s">
-        <v>207</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="D19" t="s">
-        <v>205</v>
+        <v>200</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -2132,13 +2139,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>232</v>
-      </c>
-      <c r="C20" t="s">
-        <v>230</v>
-      </c>
-      <c r="D20" t="s">
-        <v>231</v>
+        <v>222</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
@@ -2146,13 +2153,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>234</v>
-      </c>
-      <c r="C21" t="s">
-        <v>233</v>
-      </c>
-      <c r="D21" t="s">
-        <v>235</v>
+        <v>224</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -2160,13 +2167,13 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>258</v>
-      </c>
-      <c r="C22" t="s">
-        <v>260</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>259</v>
+        <v>248</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -2174,13 +2181,13 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>291</v>
-      </c>
-      <c r="C23" t="s">
-        <v>289</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>290</v>
+        <v>276</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -2188,13 +2195,13 @@
         <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>306</v>
-      </c>
-      <c r="C24" t="s">
-        <v>307</v>
-      </c>
-      <c r="D24" t="s">
-        <v>308</v>
+        <v>290</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -2204,11 +2211,11 @@
       <c r="B25" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>310</v>
+      <c r="C25" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -2218,14 +2225,14 @@
       <c r="B26" t="s">
         <v>50</v>
       </c>
-      <c r="C26" t="s">
-        <v>311</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>313</v>
+      <c r="C26" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>295</v>
       </c>
       <c r="E26" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -2233,13 +2240,13 @@
         <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>314</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>316</v>
+        <v>296</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -2247,13 +2254,13 @@
         <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>318</v>
-      </c>
-      <c r="C28" t="s">
-        <v>317</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>319</v>
+        <v>299</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
@@ -2261,13 +2268,13 @@
         <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>343</v>
-      </c>
-      <c r="C29" t="s">
-        <v>342</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>341</v>
+        <v>319</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
@@ -2277,14 +2284,14 @@
       <c r="B30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>350</v>
+      <c r="C30" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>324</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -2301,13 +2308,13 @@
         <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>354</v>
+        <v>329</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>328</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2322,16 +2329,16 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D32" t="s">
-        <v>170</v>
+        <v>341</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>432</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2347,8 +2354,8 @@
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="6"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="4"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -2361,26 +2368,26 @@
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
-      <c r="B34" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="7"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="C34" s="17"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="5"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="D35" t="s">
         <v>154</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="D35" t="s">
-        <v>155</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2393,14 +2400,17 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C36" s="14"/>
+    </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
-      <c r="B37" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="7"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C37" s="17"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -2409,25 +2419,26 @@
       <c r="B38" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>214</v>
-      </c>
+      <c r="C38" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D38" s="19"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>211</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>202</v>
       </c>
       <c r="E39" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
@@ -2435,11 +2446,12 @@
         <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>215</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="D40" s="19"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
@@ -2448,58 +2460,61 @@
       <c r="B41" t="s">
         <v>29</v>
       </c>
-      <c r="C41" t="s">
-        <v>217</v>
-      </c>
+      <c r="C41" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="D41" s="19"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>218</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>219</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="D42" s="19"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B43" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>239</v>
+      <c r="C43" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B44" t="s">
-        <v>241</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>242</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D44" s="19"/>
     </row>
     <row r="45" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>243</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>245</v>
+        <v>233</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
@@ -2507,24 +2522,25 @@
         <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>247</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>246</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="D46" s="19"/>
     </row>
     <row r="47" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B47" t="s">
-        <v>250</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>252</v>
+        <v>240</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="D47" s="19" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -2532,13 +2548,13 @@
         <v>24</v>
       </c>
       <c r="B48" t="s">
-        <v>256</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
@@ -2546,27 +2562,28 @@
         <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>271</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>270</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="D49" s="19"/>
     </row>
     <row r="50" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>33</v>
       </c>
       <c r="B50" t="s">
-        <v>279</v>
-      </c>
-      <c r="C50" t="s">
-        <v>277</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>280</v>
+        <v>265</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="D50" s="19" t="s">
+        <v>266</v>
       </c>
       <c r="E50" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -2574,27 +2591,27 @@
         <v>34</v>
       </c>
       <c r="B51" t="s">
-        <v>282</v>
-      </c>
-      <c r="C51" t="s">
-        <v>283</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>284</v>
+        <v>268</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="B52" t="s">
-        <v>286</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>288</v>
+        <v>272</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="D52" s="19" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -2604,25 +2621,25 @@
       <c r="B53" t="s">
         <v>37</v>
       </c>
-      <c r="C53" t="s">
-        <v>292</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>293</v>
+      <c r="C53" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="B54" t="s">
-        <v>298</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>299</v>
+        <v>282</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
@@ -2630,13 +2647,13 @@
         <v>38</v>
       </c>
       <c r="B55" t="s">
-        <v>300</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="D55" t="s">
-        <v>188</v>
+        <v>284</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -2644,13 +2661,13 @@
         <v>39</v>
       </c>
       <c r="B56" t="s">
-        <v>305</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>304</v>
+        <v>289</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
@@ -2658,13 +2675,13 @@
         <v>61</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>347</v>
+        <v>323</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>322</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -2682,13 +2699,13 @@
         <v>72</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>358</v>
+        <v>332</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="D58" s="19" t="s">
+        <v>331</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -2703,16 +2720,16 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="D59" t="s">
-        <v>172</v>
+        <v>339</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>168</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -2730,12 +2747,12 @@
         <v>77</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D60" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="D60" s="19" t="s">
         <v>78</v>
       </c>
       <c r="E60" s="1"/>
@@ -2754,12 +2771,12 @@
         <v>84</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D61" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="D61" s="19" t="s">
         <v>85</v>
       </c>
       <c r="E61" s="1"/>
@@ -2775,16 +2792,16 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>161</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="D62" s="14" t="s">
         <v>162</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="D62" t="s">
-        <v>163</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2799,16 +2816,16 @@
     </row>
     <row r="63" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>394</v>
+        <v>356</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>94</v>
+        <v>357</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>93</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -2823,16 +2840,16 @@
     </row>
     <row r="64" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -2847,16 +2864,16 @@
     </row>
     <row r="65" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -2871,16 +2888,16 @@
     </row>
     <row r="66" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -2895,16 +2912,16 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="D67" t="s">
         <v>129</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D67" t="s">
-        <v>130</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -2919,16 +2936,16 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="D68" t="s">
         <v>135</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="D68" t="s">
-        <v>136</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -2942,30 +2959,30 @@
       <c r="N68" s="1"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C69" s="6"/>
-      <c r="D69" s="13"/>
+      <c r="C69" s="16"/>
+      <c r="D69"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A70" s="7"/>
-      <c r="B70" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C70" s="14"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
+      <c r="A70" s="5"/>
+      <c r="B70" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C70" s="18"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>17</v>
       </c>
       <c r="B71" t="s">
-        <v>223</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="D71" t="s">
-        <v>224</v>
+        <v>213</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
@@ -2973,13 +2990,13 @@
         <v>27</v>
       </c>
       <c r="B72" t="s">
-        <v>268</v>
-      </c>
-      <c r="C72" t="s">
-        <v>267</v>
-      </c>
-      <c r="D72" t="s">
-        <v>269</v>
+        <v>256</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
@@ -2987,27 +3004,27 @@
         <v>32</v>
       </c>
       <c r="B73" t="s">
-        <v>274</v>
-      </c>
-      <c r="C73" t="s">
-        <v>275</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>276</v>
+        <v>261</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="D74" s="21" t="s">
         <v>138</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="D74" t="s">
-        <v>139</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -3020,27 +3037,30 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C75" s="14"/>
+    </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A76" s="7"/>
-      <c r="B76" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="C76" s="7"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="7"/>
+      <c r="A76" s="5"/>
+      <c r="B76" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C76" s="17"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="5"/>
     </row>
     <row r="77" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>18</v>
       </c>
       <c r="B77" t="s">
-        <v>228</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>229</v>
+        <v>218</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D77" s="23" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
@@ -3050,33 +3070,37 @@
       <c r="B78" t="s">
         <v>31</v>
       </c>
-      <c r="C78" t="s">
-        <v>272</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>273</v>
-      </c>
+      <c r="C78" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C79" s="14"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A80" s="7"/>
-      <c r="B80" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
+      <c r="A80" s="5"/>
+      <c r="B80" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C80" s="17"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="B81" t="s">
-        <v>321</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>323</v>
+        <v>302</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
@@ -3084,13 +3108,13 @@
         <v>54</v>
       </c>
       <c r="B82" t="s">
-        <v>329</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="D82" s="6" t="s">
-        <v>330</v>
+        <v>309</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
@@ -3100,11 +3124,11 @@
       <c r="B83" t="s">
         <v>57</v>
       </c>
-      <c r="C83" t="s">
-        <v>337</v>
-      </c>
-      <c r="D83" s="19" t="s">
-        <v>209</v>
+      <c r="C83" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -3112,13 +3136,13 @@
         <v>60</v>
       </c>
       <c r="B84" t="s">
-        <v>345</v>
-      </c>
-      <c r="C84" t="s">
-        <v>344</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>346</v>
+        <v>320</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="D84" s="19" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -3128,10 +3152,10 @@
       <c r="B85" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C85" t="s">
-        <v>356</v>
-      </c>
-      <c r="D85" s="2" t="s">
+      <c r="C85" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="D85" s="19" t="s">
         <v>69</v>
       </c>
       <c r="E85" s="1"/>
@@ -3150,13 +3174,13 @@
         <v>73</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>361</v>
+        <v>335</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="D86" s="23" t="s">
+        <v>334</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -3174,13 +3198,13 @@
         <v>21</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>367</v>
+        <v>337</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>338</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -3198,13 +3222,13 @@
         <v>83</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>375</v>
+        <v>345</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>343</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -3222,13 +3246,13 @@
         <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>387</v>
+        <v>351</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="D89" s="19" t="s">
+        <v>352</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -3243,16 +3267,16 @@
     </row>
     <row r="90" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="D90" s="19" t="s">
         <v>160</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -3267,16 +3291,16 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D91" t="s">
-        <v>161</v>
+      <c r="C91" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>160</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -3294,13 +3318,13 @@
         <v>88</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C92" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="D92" s="23" t="s">
         <v>89</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -3315,16 +3339,16 @@
     </row>
     <row r="93" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>91</v>
+      <c r="C93" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>90</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -3339,16 +3363,16 @@
     </row>
     <row r="94" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="D94" s="19" t="s">
         <v>95</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -3363,16 +3387,16 @@
     </row>
     <row r="95" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="D95" s="19" t="s">
         <v>97</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -3387,16 +3411,16 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D96" t="s">
-        <v>400</v>
+        <v>155</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="D96" s="14" t="s">
+        <v>360</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -3411,16 +3435,16 @@
     </row>
     <row r="97" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="D97" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -3435,16 +3459,16 @@
     </row>
     <row r="98" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="D98" s="19" t="s">
         <v>101</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -3459,16 +3483,16 @@
     </row>
     <row r="99" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="D99" s="19" t="s">
         <v>104</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -3483,16 +3507,16 @@
     </row>
     <row r="100" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="D100" s="19" t="s">
         <v>106</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -3507,16 +3531,16 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="C101" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="D101" s="14" t="s">
         <v>146</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D101" t="s">
-        <v>147</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -3531,16 +3555,16 @@
     </row>
     <row r="102" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="D102" s="23" t="s">
         <v>108</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
@@ -3555,16 +3579,16 @@
     </row>
     <row r="103" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="D103" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
@@ -3579,16 +3603,16 @@
     </row>
     <row r="104" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="D104" s="19" t="s">
         <v>123</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
@@ -3603,16 +3627,16 @@
     </row>
     <row r="105" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>435</v>
+        <v>378</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>437</v>
+        <v>142</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="D105" s="19" t="s">
+        <v>379</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
@@ -3627,16 +3651,16 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="D106" s="14" t="s">
         <v>143</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="D106" t="s">
-        <v>144</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
@@ -3651,30 +3675,30 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="B107" t="s">
-        <v>143</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>333</v>
+        <v>142</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="D107" s="16" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="D108" s="19" t="s">
         <v>132</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -3687,26 +3711,29 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C109" s="14"/>
+    </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A110" s="15"/>
-      <c r="B110" s="18" t="s">
-        <v>424</v>
-      </c>
-      <c r="C110" s="16"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="15"/>
+      <c r="A110" s="11"/>
+      <c r="B110" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="C110" s="18"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="11"/>
     </row>
     <row r="111" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>74</v>
       </c>
       <c r="B111" t="s">
-        <v>180</v>
-      </c>
-      <c r="C111" t="s">
-        <v>220</v>
-      </c>
-      <c r="D111" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="D111" s="20" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3717,39 +3744,39 @@
       <c r="B112" t="s">
         <v>75</v>
       </c>
-      <c r="C112" t="s">
-        <v>220</v>
-      </c>
-      <c r="D112" t="s">
-        <v>179</v>
+      <c r="C112" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="D112" s="21" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B113" t="s">
         <v>75</v>
       </c>
-      <c r="C113" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D113" s="13" t="s">
-        <v>194</v>
+      <c r="C113" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D113" s="21" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="D114" t="s">
-        <v>174</v>
+        <v>336</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="D114" s="21" t="s">
+        <v>170</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -3767,27 +3794,27 @@
         <v>55</v>
       </c>
       <c r="B115" t="s">
-        <v>334</v>
-      </c>
-      <c r="C115" t="s">
-        <v>335</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>336</v>
+        <v>314</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="D115" s="22" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="C116" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="D116" s="21" t="s">
         <v>151</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -3802,16 +3829,16 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="D117" s="21" t="s">
         <v>148</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="D117" t="s">
-        <v>149</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -3826,16 +3853,16 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="D118" s="21" t="s">
         <v>140</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="D118" t="s">
-        <v>141</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -3850,38 +3877,42 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B119" t="s">
-        <v>438</v>
-      </c>
-      <c r="C119" t="s">
-        <v>439</v>
-      </c>
-      <c r="D119" t="s">
-        <v>137</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="D119" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C120" s="14"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A121" s="7"/>
-      <c r="B121" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="C121" s="7"/>
-      <c r="D121" s="8"/>
+      <c r="A121" s="5"/>
+      <c r="B121" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C121" s="17"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>53</v>
       </c>
       <c r="B122" t="s">
-        <v>325</v>
-      </c>
-      <c r="C122" t="s">
-        <v>326</v>
-      </c>
-      <c r="D122" s="6" t="s">
-        <v>327</v>
+        <v>306</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="D122" s="16" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
@@ -3889,27 +3920,27 @@
         <v>58</v>
       </c>
       <c r="B123" t="s">
-        <v>339</v>
-      </c>
-      <c r="C123" t="s">
-        <v>338</v>
-      </c>
-      <c r="D123" s="6" t="s">
-        <v>340</v>
+        <v>316</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="D123" s="16" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D124" t="s">
-        <v>169</v>
+        <v>340</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D124" s="14" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="125" spans="1:14" ht="17" x14ac:dyDescent="0.2">
@@ -3917,13 +3948,13 @@
         <v>86</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>384</v>
+        <v>348</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="D125" s="19" t="s">
+        <v>350</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -3938,16 +3969,16 @@
     </row>
     <row r="126" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="D126" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -3962,16 +3993,16 @@
     </row>
     <row r="127" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="D127" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -3983,6 +4014,10 @@
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C128" s="14"/>
+      <c r="D128" s="19"/>
     </row>
     <row r="132" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B132" s="1"/>
@@ -4224,6 +4259,82 @@
     <hyperlink ref="C100" r:id="rId47" xr:uid="{87FD57AD-7BC9-2A4E-920D-CFC80FD8154A}"/>
     <hyperlink ref="C103" r:id="rId48" xr:uid="{C5FCEFB7-DF82-E346-8F75-43CA55121093}"/>
     <hyperlink ref="C68" r:id="rId49" xr:uid="{CCA3526E-24D7-EC47-B903-0C140724BF20}"/>
+    <hyperlink ref="C127" r:id="rId50" xr:uid="{DF63E8CE-BA0E-B048-9544-7AD8AA700064}"/>
+    <hyperlink ref="C126" r:id="rId51" xr:uid="{AAE04441-F754-684C-96D0-23B8DC2EC06C}"/>
+    <hyperlink ref="C124" r:id="rId52" xr:uid="{191179CF-17AE-FF42-98F9-0F2DB554CA0A}"/>
+    <hyperlink ref="C123" r:id="rId53" xr:uid="{2136038C-796B-E641-A9A7-8C5457FFA70E}"/>
+    <hyperlink ref="C122" r:id="rId54" xr:uid="{8C8306F5-98D3-0844-9383-A699A1BFEF35}"/>
+    <hyperlink ref="C119" r:id="rId55" xr:uid="{BD2E3B4B-876D-6341-8553-3B274E4A8886}"/>
+    <hyperlink ref="C118" r:id="rId56" xr:uid="{D1318E24-2816-FC40-BA03-CB03F60AC4E5}"/>
+    <hyperlink ref="C117" r:id="rId57" xr:uid="{02051C2A-40B9-6142-A2A7-28864BDF8D85}"/>
+    <hyperlink ref="C116" r:id="rId58" xr:uid="{0D0730BD-FF1F-5241-B51F-E7648E0AB409}"/>
+    <hyperlink ref="C115" r:id="rId59" xr:uid="{08B84EF6-622F-2340-9E67-C76D6A42F4F6}"/>
+    <hyperlink ref="C114" r:id="rId60" xr:uid="{E5A0FBFA-DD07-464B-A70D-F6810091283F}"/>
+    <hyperlink ref="C112" r:id="rId61" xr:uid="{436BB5AC-B866-904C-901D-DDC5475FFCB1}"/>
+    <hyperlink ref="C111" r:id="rId62" xr:uid="{87F5C656-BAFD-C549-9CF0-B8506A9B6BFC}"/>
+    <hyperlink ref="C108" r:id="rId63" xr:uid="{A6A36AC4-8992-CE4A-A695-B6F866493FBB}"/>
+    <hyperlink ref="C106" r:id="rId64" xr:uid="{0EBEF9D5-5E48-2740-A638-149C0A393938}"/>
+    <hyperlink ref="C105" r:id="rId65" xr:uid="{6F917926-568F-6A47-87BD-CAE6FCF25F46}"/>
+    <hyperlink ref="C104" r:id="rId66" xr:uid="{02C47D4E-8945-9949-AA75-5F4ABD0A67E9}"/>
+    <hyperlink ref="C102" r:id="rId67" xr:uid="{198E61BD-4BF5-C14E-BC29-17066581D0F0}"/>
+    <hyperlink ref="C101" r:id="rId68" xr:uid="{887531E0-3C36-724F-BEA9-A7ABFC920421}"/>
+    <hyperlink ref="C99" r:id="rId69" xr:uid="{8BDCE316-030D-9945-B68C-06CEBF6EA72C}"/>
+    <hyperlink ref="C98" r:id="rId70" xr:uid="{BB57CC9C-C65E-024E-B39D-17A3C8909E9A}"/>
+    <hyperlink ref="C96" r:id="rId71" xr:uid="{6F344BF6-71DD-1A4C-9A4B-E994A4F70942}"/>
+    <hyperlink ref="C95" r:id="rId72" xr:uid="{E744EBA8-087B-374E-A317-F0C1304320FC}"/>
+    <hyperlink ref="C93" r:id="rId73" xr:uid="{B3141823-7366-CD48-B046-C22C50A1C7BE}"/>
+    <hyperlink ref="C92" r:id="rId74" xr:uid="{6C3AAC66-B291-9E46-9108-111CB6AF147C}"/>
+    <hyperlink ref="C91" r:id="rId75" xr:uid="{1F67203A-CD72-D14A-9D62-1CDB35F7642C}"/>
+    <hyperlink ref="C90" r:id="rId76" xr:uid="{153EFE63-8852-A14A-8831-D17F320E0D34}"/>
+    <hyperlink ref="C89" r:id="rId77" xr:uid="{E0A76513-90A2-B149-A5D0-845A110451C8}"/>
+    <hyperlink ref="C87" r:id="rId78" xr:uid="{505CC518-2571-C749-8BBC-EFBDE93EED7C}"/>
+    <hyperlink ref="C84" r:id="rId79" xr:uid="{6C21481E-0FCA-6E47-AF8C-1EF888FDBCA9}"/>
+    <hyperlink ref="C83" r:id="rId80" xr:uid="{98C45713-98F5-2A4B-B7F3-FA153D8CB747}"/>
+    <hyperlink ref="C78" r:id="rId81" xr:uid="{9C2945D1-AE05-BF4F-9C53-0846DEC6AF4A}"/>
+    <hyperlink ref="C72" r:id="rId82" xr:uid="{7EA3F7BD-1867-E445-8A1B-E74A36D196B6}"/>
+    <hyperlink ref="C67" r:id="rId83" xr:uid="{BB89E6CB-4D41-5642-84A6-F5E2ECB52D12}"/>
+    <hyperlink ref="C66" r:id="rId84" xr:uid="{55D1FA66-6AD3-294E-850A-CE0EE800E40B}"/>
+    <hyperlink ref="C65" r:id="rId85" xr:uid="{8F6FC79A-FDAD-304A-9D12-1C3C0502E497}"/>
+    <hyperlink ref="C64" r:id="rId86" xr:uid="{0C4594CF-714D-E743-8C2A-937F19248BB1}"/>
+    <hyperlink ref="C62" r:id="rId87" xr:uid="{A724CD2B-D6B9-B04F-A2B8-6342ED3BCFB7}"/>
+    <hyperlink ref="C61" r:id="rId88" xr:uid="{A84456D6-529E-1142-8655-8EE6D27D5F10}"/>
+    <hyperlink ref="C60" r:id="rId89" xr:uid="{CB0AE326-E692-1A4B-9A95-22551A06BECE}"/>
+    <hyperlink ref="C59" r:id="rId90" xr:uid="{FAD74729-01C4-AB46-8C25-300C37241433}"/>
+    <hyperlink ref="C58" r:id="rId91" xr:uid="{137F01B4-A7BC-9B4A-BBA7-80B6F3DBA02D}"/>
+    <hyperlink ref="C57" r:id="rId92" xr:uid="{A1E881CE-2BF4-1A4F-94EF-64FD59E83194}"/>
+    <hyperlink ref="C53" r:id="rId93" xr:uid="{D96714D7-DE33-114E-84B0-BB77C2F54527}"/>
+    <hyperlink ref="C50" r:id="rId94" xr:uid="{1EA72A4E-D73E-4547-9652-3EB11B5DD8FE}"/>
+    <hyperlink ref="C41" r:id="rId95" xr:uid="{54A9C511-EDB5-874E-814E-84B97D5893DC}"/>
+    <hyperlink ref="C35" r:id="rId96" xr:uid="{43369F47-EF27-7946-9953-1321B6C2F07A}"/>
+    <hyperlink ref="C32" r:id="rId97" xr:uid="{BD3AB90F-9DBE-FB48-8408-D6B9CD051758}"/>
+    <hyperlink ref="C29" r:id="rId98" xr:uid="{EDE0245D-9D7F-7B4A-923F-27455BA87B42}"/>
+    <hyperlink ref="C28" r:id="rId99" xr:uid="{7469D1FF-3BCA-0848-BC92-89AA842529B9}"/>
+    <hyperlink ref="C26" r:id="rId100" xr:uid="{DBF7D636-0325-C54D-99FD-8EF04453E37B}"/>
+    <hyperlink ref="C24" r:id="rId101" xr:uid="{8BEC0DF5-6E4E-D247-91E2-861D16C4332D}"/>
+    <hyperlink ref="C23" r:id="rId102" xr:uid="{B78922C1-6E34-6D44-8594-51661B2DADEA}"/>
+    <hyperlink ref="C22" r:id="rId103" xr:uid="{903256E3-98EB-5B4B-A5C1-2EDB933D9F20}"/>
+    <hyperlink ref="C21" r:id="rId104" xr:uid="{CAA92ACD-D03D-E240-AD90-0029ED6C4D65}"/>
+    <hyperlink ref="C20" r:id="rId105" xr:uid="{C7EAF5E1-483A-D04E-AD7D-F30251E34450}"/>
+    <hyperlink ref="C19" r:id="rId106" xr:uid="{DBD50CC8-F088-DB42-A8B7-4DC7F44B0CB7}"/>
+    <hyperlink ref="C18" r:id="rId107" xr:uid="{C2C094ED-C9B9-874C-8385-7F962F587612}"/>
+    <hyperlink ref="C17" r:id="rId108" xr:uid="{F5AB4206-7777-564F-9B01-9575F4667E2A}"/>
+    <hyperlink ref="C16" r:id="rId109" xr:uid="{C382E1AE-F6E7-084F-A890-E9188DA0DF54}"/>
+    <hyperlink ref="C15" r:id="rId110" xr:uid="{B01C9409-4A83-9147-9E5F-6434AE60BB6B}"/>
+    <hyperlink ref="C14" r:id="rId111" xr:uid="{1C8CB0CD-F48F-6C4C-AFA8-2EB11B2D3787}"/>
+    <hyperlink ref="C13" r:id="rId112" xr:uid="{B097E0EA-349D-2646-B6F9-27DFAB7D34AB}"/>
+    <hyperlink ref="C12" r:id="rId113" xr:uid="{4B2C7F64-1ABB-D842-ADD0-9404A969F1F8}"/>
+    <hyperlink ref="C11" r:id="rId114" xr:uid="{5DD13BD9-A954-7344-BB8B-EB6C485F0789}"/>
+    <hyperlink ref="C10" r:id="rId115" xr:uid="{345B4CCF-2CFA-BB45-BB41-09D38C970D85}"/>
+    <hyperlink ref="C9" r:id="rId116" xr:uid="{49D5B9D2-0838-6F4E-9E49-6C93F00AF73D}"/>
+    <hyperlink ref="C8" r:id="rId117" xr:uid="{4738E0AF-3BC0-6049-8A76-A92BD38FFFF5}"/>
+    <hyperlink ref="C7" r:id="rId118" xr:uid="{32C01F69-0EFF-884D-8ED2-59055D49898F}"/>
+    <hyperlink ref="C6" r:id="rId119" xr:uid="{28856D65-83CD-3A44-B880-916F2A35A8E3}"/>
+    <hyperlink ref="C5" r:id="rId120" xr:uid="{09D10B91-8D23-8D4D-BAA7-20338C07A4F4}"/>
+    <hyperlink ref="C4" r:id="rId121" xr:uid="{90A63F2B-C844-2E4F-A687-1605B60F5682}"/>
+    <hyperlink ref="C3" r:id="rId122" xr:uid="{5D0BCE08-FFC4-174D-A05C-042D973761FD}"/>
+    <hyperlink ref="D6" r:id="rId123" xr:uid="{FAADDA7F-B0DC-7445-86E3-5FF74A8A3AE5}"/>
+    <hyperlink ref="D92" r:id="rId124" xr:uid="{CD53209B-C358-EA43-B2F6-13A554EA43E9}"/>
+    <hyperlink ref="D102" r:id="rId125" xr:uid="{E1D7079D-4FD5-DE44-B981-01CFC301EB8D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
